--- a/backend/users.xlsx
+++ b/backend/users.xlsx
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>veronique</v>
+        <v>Nom d'utilisateur</v>
       </c>
       <c r="B2" t="str">
         <v>veroniqueraoelison@gmail.com</v>
@@ -427,7 +427,7 @@
         <v>veronique</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>https://cdn-icons-png.flaticon.com/512/149/149071.png</v>
       </c>
     </row>
     <row r="3">

--- a/backend/users.xlsx
+++ b/backend/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,52 +415,111 @@
       <c r="D1" t="str">
         <v>photo</v>
       </c>
+      <c r="E1" t="str">
+        <v>lessons</v>
+      </c>
+      <c r="F1" t="str">
+        <v>accuracy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>speed</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Nom d'utilisateur</v>
+        <v>veronique</v>
       </c>
       <c r="B2" t="str">
-        <v>veroniqueraoelison@gmail.com</v>
+        <v>hei.veronique.4@gmail.com</v>
       </c>
       <c r="C2" t="str">
         <v>veronique</v>
       </c>
       <c r="D2" t="str">
-        <v>https://cdn-icons-png.flaticon.com/512/149/149071.png</v>
+        <v>https://th.bing.com/th/id/OIP.j_Tjkie6kPvXbxGejT7MXwHaHa?rs=1&amp;pid=ImgDetMain</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>dsfghjkl</v>
+        <v>man</v>
       </c>
       <c r="B3" t="str">
-        <v>hei@gmail.com</v>
+        <v>veronique@gmail.com</v>
       </c>
       <c r="C3" t="str">
-        <v>hei</v>
+        <v>veronique@gmail.com</v>
       </c>
       <c r="D3" t="str">
         <v/>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>gaing</v>
+        <v>man</v>
       </c>
       <c r="B4" t="str">
-        <v>hei.veronique.4@gmail.com</v>
+        <v>man@gmail.com</v>
       </c>
       <c r="C4" t="str">
-        <v>gggg</v>
+        <v>veronique</v>
       </c>
       <c r="D4" t="str">
-        <v>https://th.bing.com/th/id/OIP.CKGO818QyONSCSmK8ZPfEgHaE8?rs=1&amp;pid=ImgDetMain</v>
+        <v/>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Ty tan</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ty.tan@gmail.com</v>
+      </c>
+      <c r="C5" t="str">
+        <v>ty.tan@gmail.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://th.bing.com/th/id/OIP.pLTD1upPQvsC0XG5904BPQHaHX?rs=1&amp;pid=ImgDetMain</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>